--- a/ext_assets/concept_set_attributes.xlsx
+++ b/ext_assets/concept_set_attributes.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BFD10-9784-424A-9FC5-752A05536AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12420" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MtAttrPpuLUT" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="257">
   <si>
     <t>dead space</t>
   </si>
@@ -151,12 +164,657 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>Object table $YX</t>
+  </si>
+  <si>
+    <t>PPU attr bits</t>
+  </si>
+  <si>
+    <t>20C2</t>
+  </si>
+  <si>
+    <t>20C4</t>
+  </si>
+  <si>
+    <t>20C6</t>
+  </si>
+  <si>
+    <t>20C8</t>
+  </si>
+  <si>
+    <t>20CA</t>
+  </si>
+  <si>
+    <t>20CC</t>
+  </si>
+  <si>
+    <t>20CE</t>
+  </si>
+  <si>
+    <t>20D0</t>
+  </si>
+  <si>
+    <t>20D2</t>
+  </si>
+  <si>
+    <t>20D4</t>
+  </si>
+  <si>
+    <t>20D6</t>
+  </si>
+  <si>
+    <t>20D8</t>
+  </si>
+  <si>
+    <t>20DA</t>
+  </si>
+  <si>
+    <t>20DC</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>210A</t>
+  </si>
+  <si>
+    <t>210C</t>
+  </si>
+  <si>
+    <t>210E</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>211A</t>
+  </si>
+  <si>
+    <t>211C</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>21C2</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2242</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>22C2</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>23C8</t>
+  </si>
+  <si>
+    <t>23C9</t>
+  </si>
+  <si>
+    <t>23CA</t>
+  </si>
+  <si>
+    <t>23CB</t>
+  </si>
+  <si>
+    <t>23CC</t>
+  </si>
+  <si>
+    <t>23CD</t>
+  </si>
+  <si>
+    <t>23CE</t>
+  </si>
+  <si>
+    <t>23CF</t>
+  </si>
+  <si>
+    <t>23D0</t>
+  </si>
+  <si>
+    <t>23D1</t>
+  </si>
+  <si>
+    <t>23D2</t>
+  </si>
+  <si>
+    <t>23D3</t>
+  </si>
+  <si>
+    <t>23D4</t>
+  </si>
+  <si>
+    <t>23D5</t>
+  </si>
+  <si>
+    <t>23D6</t>
+  </si>
+  <si>
+    <t>23D7</t>
+  </si>
+  <si>
+    <t>23D8</t>
+  </si>
+  <si>
+    <t>23D9</t>
+  </si>
+  <si>
+    <t>23DE</t>
+  </si>
+  <si>
+    <t>23DF</t>
+  </si>
+  <si>
+    <t>23E0</t>
+  </si>
+  <si>
+    <t>23E1</t>
+  </si>
+  <si>
+    <t>23E6</t>
+  </si>
+  <si>
+    <t>23E7</t>
+  </si>
+  <si>
+    <t>23E8</t>
+  </si>
+  <si>
+    <t>23E9</t>
+  </si>
+  <si>
+    <t>23EE</t>
+  </si>
+  <si>
+    <t>23EF</t>
+  </si>
+  <si>
+    <t>23F0</t>
+  </si>
+  <si>
+    <t>23F1</t>
+  </si>
+  <si>
+    <t>23F7</t>
+  </si>
+  <si>
+    <t>xx------</t>
+  </si>
+  <si>
+    <t>--xx----</t>
+  </si>
+  <si>
+    <t>----xx--</t>
+  </si>
+  <si>
+    <t>------xx</t>
+  </si>
+  <si>
+    <t>PPU tile addr $</t>
+  </si>
+  <si>
+    <t>PPU attr addr $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +1233,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +1251,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,24 +1269,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,13 +1287,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,6 +1323,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,20 +1376,8 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,45 +1385,33 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,76 +1688,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="B6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="52"/>
-    <col min="2" max="33" width="2.140625" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="39"/>
-    <col min="35" max="35" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="41"/>
+    <col min="2" max="33" width="2.109375" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" style="34"/>
+    <col min="35" max="35" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:35" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="45" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="45" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="45" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="45" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="45" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="45" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AI1" s="40"/>
-    </row>
-    <row r="2" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AI1" s="35"/>
+    </row>
+    <row r="2" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>15</v>
       </c>
@@ -1130,11 +1793,11 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="4"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1168,11 +1831,11 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1206,11 +1869,11 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1244,11 +1907,11 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="10"/>
-      <c r="AI5" s="44" t="s">
+      <c r="AI5" s="39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1948,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="13"/>
     </row>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="5"/>
       <c r="C7" s="14"/>
@@ -1320,774 +1983,774 @@
       <c r="AF7" s="16"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="5"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="23" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="24"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="21"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="5"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="24"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="21"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="53" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="24"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="21"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="5"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="24"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="21"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="5"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="24"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="21"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="5"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="24"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="24"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="21"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="5"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="21"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="5"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="21"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="5"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="21"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="21"/>
       <c r="AG18" s="7"/>
     </row>
-    <row r="19" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="5"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="21"/>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="5"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="21"/>
       <c r="AG20" s="7"/>
     </row>
-    <row r="21" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
       <c r="B21" s="5"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="21"/>
       <c r="AG21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="21"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="5"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="21"/>
       <c r="AG23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="5"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="21"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="51"/>
       <c r="B25" s="5"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="21"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="23">
+      <c r="D26" s="52">
         <v>90</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="23" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="24"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="21"/>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
       <c r="B27" s="5"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="24"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="21"/>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="35"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="30"/>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -2122,7 +2785,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
         <v>22</v>
       </c>
@@ -2159,7 +2822,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -2194,7 +2857,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -2229,54 +2892,47 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="38"/>
-    </row>
-    <row r="34" spans="1:35" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="AI34" s="40"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="33"/>
+    </row>
+    <row r="34" spans="1:35" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
+      <c r="AI34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="D12:E13"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="AD1:AG1"/>
@@ -2289,14 +2945,21 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="AD8:AE9"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="AD26:AE27"/>
+    <mergeCell ref="F8:G9"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="D12:E13"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="AD26:AE27"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2307,1091 +2970,2646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="16384" width="9.109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
         <v>8</v>
       </c>
-      <c r="B2" s="65" t="str">
+      <c r="B2" s="42" t="str">
         <f>DEC2HEX(A2,2)</f>
         <v>08</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="42">
         <v>-1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="42">
         <f>(A2-8)*2-1+(16*_xlfn.FLOOR.MATH((A2-8)/8))</f>
         <v>-1</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
         <v>9</v>
       </c>
-      <c r="B3" s="65" t="str">
+      <c r="B3" s="42" t="str">
         <f t="shared" ref="B3:B49" si="0">DEC2HEX(A3,2)</f>
         <v>09</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="65" t="str">
+      <c r="D3" s="42" t="str">
         <f t="shared" ref="D3:D49" si="1">DEC2HEX(C3,2)</f>
         <v>01</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="42">
         <f t="shared" ref="E3:E49" si="2">(A3-8)*2-1+(16*_xlfn.FLOOR.MATH((A3-8)/8))</f>
         <v>1</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
         <v>10</v>
       </c>
-      <c r="B4" s="65" t="str">
+      <c r="B4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="42">
         <v>3</v>
       </c>
-      <c r="D4" s="65" t="str">
+      <c r="D4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>03</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
         <v>11</v>
       </c>
-      <c r="B5" s="65" t="str">
+      <c r="B5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0B</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="42">
         <v>5</v>
       </c>
-      <c r="D5" s="65" t="str">
+      <c r="D5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>05</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
         <v>12</v>
       </c>
-      <c r="B6" s="65" t="str">
+      <c r="B6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0C</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="42">
         <v>7</v>
       </c>
-      <c r="D6" s="65" t="str">
+      <c r="D6" s="42" t="str">
         <f t="shared" si="1"/>
         <v>07</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="42">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
         <v>13</v>
       </c>
-      <c r="B7" s="65" t="str">
+      <c r="B7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="42">
         <v>9</v>
       </c>
-      <c r="D7" s="65" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="1"/>
         <v>09</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="42">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>14</v>
       </c>
-      <c r="B8" s="65" t="str">
+      <c r="B8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="42">
         <v>11</v>
       </c>
-      <c r="D8" s="65" t="str">
+      <c r="D8" s="42" t="str">
         <f t="shared" si="1"/>
         <v>0B</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="42">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
         <v>15</v>
       </c>
-      <c r="B9" s="65" t="str">
+      <c r="B9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>0F</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="42">
         <v>13</v>
       </c>
-      <c r="D9" s="65" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>0D</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="42">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>16</v>
       </c>
-      <c r="B10" s="65" t="str">
+      <c r="B10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="42">
         <v>31</v>
       </c>
-      <c r="D10" s="65" t="str">
+      <c r="D10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>1F</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="42">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
         <v>17</v>
       </c>
-      <c r="B11" s="65" t="str">
+      <c r="B11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="42">
         <v>33</v>
       </c>
-      <c r="D11" s="65" t="str">
+      <c r="D11" s="42" t="str">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="42">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>18</v>
       </c>
-      <c r="B12" s="65" t="str">
+      <c r="B12" s="42" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="42">
         <v>35</v>
       </c>
-      <c r="D12" s="65" t="str">
+      <c r="D12" s="42" t="str">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="42">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
         <v>19</v>
       </c>
-      <c r="B13" s="65" t="str">
+      <c r="B13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="42">
         <v>37</v>
       </c>
-      <c r="D13" s="65" t="str">
+      <c r="D13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="42">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>20</v>
       </c>
-      <c r="B14" s="65" t="str">
+      <c r="B14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="42">
         <v>39</v>
       </c>
-      <c r="D14" s="65" t="str">
+      <c r="D14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="42">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
         <v>21</v>
       </c>
-      <c r="B15" s="65" t="str">
+      <c r="B15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="42">
         <v>41</v>
       </c>
-      <c r="D15" s="65" t="str">
+      <c r="D15" s="42" t="str">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="42">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
         <v>22</v>
       </c>
-      <c r="B16" s="65" t="str">
+      <c r="B16" s="42" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="42">
         <v>43</v>
       </c>
-      <c r="D16" s="65" t="str">
+      <c r="D16" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2B</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="42">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
         <v>23</v>
       </c>
-      <c r="B17" s="65" t="str">
+      <c r="B17" s="42" t="str">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="42">
         <v>45</v>
       </c>
-      <c r="D17" s="65" t="str">
+      <c r="D17" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="42">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
         <v>24</v>
       </c>
-      <c r="B18" s="65" t="str">
+      <c r="B18" s="42" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="42">
         <v>63</v>
       </c>
-      <c r="D18" s="65" t="str">
+      <c r="D18" s="42" t="str">
         <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="42">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
         <v>25</v>
       </c>
-      <c r="B19" s="65" t="str">
+      <c r="B19" s="42" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="42">
         <v>65</v>
       </c>
-      <c r="D19" s="65" t="str">
+      <c r="D19" s="42" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="42">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="65">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
         <v>26</v>
       </c>
-      <c r="B20" s="65" t="str">
+      <c r="B20" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="42">
         <v>67</v>
       </c>
-      <c r="D20" s="65" t="str">
+      <c r="D20" s="42" t="str">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="42">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="65">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
         <v>27</v>
       </c>
-      <c r="B21" s="65" t="str">
+      <c r="B21" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="42">
         <v>69</v>
       </c>
-      <c r="D21" s="65" t="str">
+      <c r="D21" s="42" t="str">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="42">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="65">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
         <v>28</v>
       </c>
-      <c r="B22" s="65" t="str">
+      <c r="B22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="42">
         <v>71</v>
       </c>
-      <c r="D22" s="65" t="str">
+      <c r="D22" s="42" t="str">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="42">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
         <v>29</v>
       </c>
-      <c r="B23" s="65" t="str">
+      <c r="B23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="42">
         <v>73</v>
       </c>
-      <c r="D23" s="65" t="str">
+      <c r="D23" s="42" t="str">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="42">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
         <v>30</v>
       </c>
-      <c r="B24" s="65" t="str">
+      <c r="B24" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="42">
         <v>75</v>
       </c>
-      <c r="D24" s="65" t="str">
+      <c r="D24" s="42" t="str">
         <f t="shared" si="1"/>
         <v>4B</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="42">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
         <v>31</v>
       </c>
-      <c r="B25" s="65" t="str">
+      <c r="B25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1F</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="42">
         <v>77</v>
       </c>
-      <c r="D25" s="65" t="str">
+      <c r="D25" s="42" t="str">
         <f t="shared" si="1"/>
         <v>4D</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="42">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="H25" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
         <v>32</v>
       </c>
-      <c r="B26" s="65" t="str">
+      <c r="B26" s="42" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D26" s="65" t="str">
+      <c r="D26" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="42">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="65">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="42">
         <v>33</v>
       </c>
-      <c r="B27" s="65" t="str">
+      <c r="B27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D27" s="65" t="str">
+      <c r="D27" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="42">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
         <v>34</v>
       </c>
-      <c r="B28" s="65" t="str">
+      <c r="B28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D28" s="65" t="str">
+      <c r="D28" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="42">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="42">
         <v>35</v>
       </c>
-      <c r="B29" s="65" t="str">
+      <c r="B29" s="42" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D29" s="65" t="str">
+      <c r="D29" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="42">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
         <v>36</v>
       </c>
-      <c r="B30" s="65" t="str">
+      <c r="B30" s="42" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D30" s="65" t="str">
+      <c r="D30" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="42">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
         <v>37</v>
       </c>
-      <c r="B31" s="65" t="str">
+      <c r="B31" s="42" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D31" s="65" t="str">
+      <c r="D31" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="42">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="42">
         <v>38</v>
       </c>
-      <c r="B32" s="65" t="str">
+      <c r="B32" s="42" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D32" s="65" t="str">
+      <c r="D32" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="42">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
         <v>39</v>
       </c>
-      <c r="B33" s="65" t="str">
+      <c r="B33" s="42" t="str">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D33" s="65" t="str">
+      <c r="D33" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="42">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="65">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
         <v>40</v>
       </c>
-      <c r="B34" s="65" t="str">
+      <c r="B34" s="42" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D34" s="65" t="str">
+      <c r="D34" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="42">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
         <v>41</v>
       </c>
-      <c r="B35" s="65" t="str">
+      <c r="B35" s="42" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D35" s="65" t="str">
+      <c r="D35" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="42">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="42">
         <v>42</v>
       </c>
-      <c r="B36" s="65" t="str">
+      <c r="B36" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
       </c>
-      <c r="D36" s="65" t="str">
+      <c r="D36" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="42">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="42">
         <v>43</v>
       </c>
-      <c r="B37" s="65" t="str">
+      <c r="B37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2B</v>
       </c>
-      <c r="D37" s="65" t="str">
+      <c r="D37" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="42">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
         <v>44</v>
       </c>
-      <c r="B38" s="65" t="str">
+      <c r="B38" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
-      <c r="D38" s="65" t="str">
+      <c r="D38" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="42">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="65">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
         <v>45</v>
       </c>
-      <c r="B39" s="65" t="str">
+      <c r="B39" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2D</v>
       </c>
-      <c r="D39" s="65" t="str">
+      <c r="D39" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="42">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="65">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="42">
         <v>46</v>
       </c>
-      <c r="B40" s="65" t="str">
+      <c r="B40" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2E</v>
       </c>
-      <c r="D40" s="65" t="str">
+      <c r="D40" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="42">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="65">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="42">
         <v>47</v>
       </c>
-      <c r="B41" s="65" t="str">
+      <c r="B41" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2F</v>
       </c>
-      <c r="D41" s="65" t="str">
+      <c r="D41" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="42">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="65" t="s">
+      <c r="H41" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="65">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
         <v>48</v>
       </c>
-      <c r="B42" s="65" t="str">
+      <c r="B42" s="42" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D42" s="65" t="str">
+      <c r="D42" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="42">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="42">
         <v>49</v>
       </c>
-      <c r="B43" s="65" t="str">
+      <c r="B43" s="42" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D43" s="65" t="str">
+      <c r="D43" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="42">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="65">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="42">
         <v>50</v>
       </c>
-      <c r="B44" s="65" t="str">
+      <c r="B44" s="42" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D44" s="65" t="str">
+      <c r="D44" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="42">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="65" t="s">
+      <c r="G44" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="42">
         <v>51</v>
       </c>
-      <c r="B45" s="65" t="str">
+      <c r="B45" s="42" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D45" s="65" t="str">
+      <c r="D45" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="42">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="42">
         <v>52</v>
       </c>
-      <c r="B46" s="65" t="str">
+      <c r="B46" s="42" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D46" s="65" t="str">
+      <c r="D46" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="42">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="42">
         <v>53</v>
       </c>
-      <c r="B47" s="65" t="str">
+      <c r="B47" s="42" t="str">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D47" s="65" t="str">
+      <c r="D47" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="42">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G47" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="42">
         <v>54</v>
       </c>
-      <c r="B48" s="65" t="str">
+      <c r="B48" s="42" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D48" s="65" t="str">
+      <c r="D48" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="42">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="42">
         <v>55</v>
       </c>
-      <c r="B49" s="65" t="str">
+      <c r="B49" s="42" t="str">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D49" s="65" t="str">
+      <c r="D49" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="42">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="65" t="s">
+      <c r="H49" s="42" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D64AD0-775C-492A-91CC-009FEA047DB3}">
+  <dimension ref="A1:E141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.5546875" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D130" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D134" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D136" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D140" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A11 A16:A25 A30:A39 A44:A53 A58:A67 A72:A81 A86:A95 A100:A109 A114:A123 A128:A137" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>